--- a/로스트아크/아스트로맨서(Astromancer)_현자/신규클래스_아스트로맨서.xlsx
+++ b/로스트아크/아스트로맨서(Astromancer)_현자/신규클래스_아스트로맨서.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\아스트로맨서(Astromancer)_현자\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E204C7-3266-4AB1-B285-27AE79264EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C97BD-53D4-4E34-B1AA-7CDEB528DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
-    <sheet name="캐릭터 컨셉" sheetId="2" r:id="rId2"/>
-    <sheet name="아크패시브" sheetId="3" r:id="rId3"/>
-    <sheet name="스킬" sheetId="4" r:id="rId4"/>
+    <sheet name="개요 (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="클래스 소개" sheetId="2" r:id="rId3"/>
+    <sheet name="아크패시브" sheetId="3" r:id="rId4"/>
+    <sheet name="스킬" sheetId="4" r:id="rId5"/>
+    <sheet name="데이터테이블" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,25 +29,33 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>아스트로맨서(Astromancer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'별의 현자'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 본 문서는 로스트아크의 신규 클래스 아스트로맨서(Astromancer)의 기획 문서입니다.</t>
-  </si>
-  <si>
-    <t>* 로스트아크의 공개되지 않은 설정과 스토리에 상상력을 더하여 만든 캐릭터입니다.</t>
   </si>
 </sst>
 </file>
@@ -82,10 +92,9 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +107,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -169,24 +184,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,8 +259,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,6 +277,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9787B0E-B39F-020F-F066-B2B3AC5922C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="0"/>
+          <a:ext cx="8465820" cy="4770215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,89 +655,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L15"/>
+  <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
+    <row r="1" spans="2:15" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="2:15" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="7"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="6"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="6"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="6"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="6"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="6"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="6"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B4:L22"/>
     <mergeCell ref="B2:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -576,6 +959,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FEF676-C52B-485D-BBED-2A2EE8A30D4A}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="8.796875" style="1"/>
+    <col min="14" max="14" width="5.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+    </row>
+    <row r="24" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3005EF1C-F5EB-4323-BCA6-ACE1207C6951}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -588,7 +1407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8568A28-5D2E-4BF3-A12A-974B5E13D38E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -601,7 +1420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A1A774-6740-496D-8A71-E29490BA11E3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -612,4 +1431,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F750884-7F5B-48E6-97F0-D51C2780E51C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>